--- a/Proyecto I/04  -Archivar/Criterios.xlsx
+++ b/Proyecto I/04  -Archivar/Criterios.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="372" windowWidth="18036" windowHeight="7896" activeTab="2"/>
+    <workbookView xWindow="765" yWindow="435" windowWidth="18030" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Priorización" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="2" r:id="rId2"/>
     <sheet name="Estimación" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>P1</t>
   </si>
@@ -102,12 +101,30 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Dependencia</t>
+  </si>
+  <si>
+    <t>Automatización de procesos Transaccionales</t>
+  </si>
+  <si>
+    <t>Automatización de campañas</t>
+  </si>
+  <si>
+    <t>Automatización proceso retroalimentación de clientes o productos</t>
+  </si>
+  <si>
+    <t>Monitor de Transacciones</t>
+  </si>
+  <si>
+    <t>Evaluación de acuerdos de servicio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +147,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -247,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +329,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,11 +356,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -338,18 +365,34 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-MX"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-CO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -359,7 +402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P1</c:v>
+                  <c:v>Automatización de procesos Transaccionales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -382,7 +425,7 @@
                   <c:v>Criticidad</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Riesgo</c:v>
+                  <c:v>Dependencia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -394,16 +437,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>66.666666666666657</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,7 +461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P2</c:v>
+                  <c:v>Automatización de campañas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -441,7 +484,7 @@
                   <c:v>Criticidad</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Riesgo</c:v>
+                  <c:v>Dependencia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -453,13 +496,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50</c:v>
@@ -477,7 +520,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P3</c:v>
+                  <c:v>Automatización proceso retroalimentación de clientes o productos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -500,7 +543,7 @@
                   <c:v>Criticidad</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Riesgo</c:v>
+                  <c:v>Dependencia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -512,16 +555,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>75</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P4</c:v>
+                  <c:v>Monitor de Transacciones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -559,7 +602,7 @@
                   <c:v>Criticidad</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Riesgo</c:v>
+                  <c:v>Dependencia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -571,10 +614,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>66.666666666666657</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
@@ -595,7 +638,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P5</c:v>
+                  <c:v>Evaluación de acuerdos de servicio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -618,7 +661,7 @@
                   <c:v>Criticidad</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Riesgo</c:v>
+                  <c:v>Dependencia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -630,54 +673,63 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64506880"/>
-        <c:axId val="64885504"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78760960"/>
+        <c:axId val="78795520"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="64506880"/>
+        <c:axId val="78760960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="64885504"/>
+        <c:crossAx val="78795520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64885504"/>
+        <c:axId val="78795520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64506880"/>
+        <c:crossAx val="78760960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -685,8 +737,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5481,138 +5536,138 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{FE9B4385-0712-454C-8269-EE28D71ECC45}" srcId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" destId="{929529B2-F05F-464C-BF29-6EB0688953A3}" srcOrd="1" destOrd="0" parTransId="{4AC33705-0CD3-4010-B374-24E02A9FDE30}" sibTransId="{DD805DB2-ACDB-40F4-8571-0CC5EF8B3885}"/>
+    <dgm:cxn modelId="{5D94D16F-483D-47B0-9C98-D08F0228A5AF}" srcId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" destId="{12269FB0-6C97-43D6-AED6-F65016DE0C9A}" srcOrd="0" destOrd="0" parTransId="{5542B310-4A47-4EC2-8AC2-82CA7364AA30}" sibTransId="{BECF5B88-679B-49B7-AAF5-C8D3EE46B4A8}"/>
+    <dgm:cxn modelId="{430748AA-5E3E-4548-8E62-1B622955C31F}" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{B5778B0F-8024-4AEF-839B-FB131BA7796F}" srcOrd="1" destOrd="0" parTransId="{07281302-1059-4C94-A4D8-E427D3E71A26}" sibTransId="{E1525B3F-64AF-4787-9BA7-799F7A5FCF01}"/>
+    <dgm:cxn modelId="{90B20F4F-CCA1-46F3-A286-A4C93CD2245F}" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{61EA42AB-C2A6-4310-B9AA-19D0569B7ADD}" srcOrd="0" destOrd="0" parTransId="{AA3FE40C-D013-4544-BDA7-F19E369B0478}" sibTransId="{C9F938D1-AF43-40C2-AF81-71AF6B96AB97}"/>
+    <dgm:cxn modelId="{68B28B31-6179-4CB6-B67D-514EDB7E7A21}" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{0A81C53D-F264-4004-99B1-697490FC3EB2}" srcOrd="0" destOrd="0" parTransId="{82DFC2F5-7D44-44AD-8EE4-BCE630C399E0}" sibTransId="{2102D414-337D-4166-A76F-A548E1AE1FAF}"/>
+    <dgm:cxn modelId="{0A57E27B-9528-4444-A5F4-9B873C64EE3E}" type="presOf" srcId="{328A9518-235E-488C-AB65-179AF64835E0}" destId="{F65BD52F-2EFC-4924-BCED-8A28E2D8ADB7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{486C3A1D-9022-42B9-9BC6-6A70F72CF097}" type="presOf" srcId="{E44142EE-4432-4B43-B07A-BA00FF1865FB}" destId="{EF57B2C7-9C7C-4EB6-A2C3-F3C8DDC81CBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{93CDB48E-828A-48EF-BF1A-4CE3227AFF6F}" type="presOf" srcId="{6E447E43-CC2D-4EF3-9E3F-86E4AF5196FB}" destId="{C182DF9C-C386-42E0-B4D6-05C35F79C59D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{117B7429-4F8E-4B2E-B71E-837C598AA72B}" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{BCD87DDD-F763-4370-A26B-2532B2531EF1}" srcOrd="1" destOrd="0" parTransId="{FE9053F8-50AC-42EF-98D6-31D682990E80}" sibTransId="{778A2F10-6CA8-4A20-AACE-535E6D0A2F53}"/>
+    <dgm:cxn modelId="{1F47E72A-757F-428E-8989-5A01DAD16E84}" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" srcOrd="0" destOrd="0" parTransId="{BB691C9E-16B7-4432-9CD4-3132F94D2311}" sibTransId="{D5CAEDEA-A71D-41B4-B1D0-50C2B0449244}"/>
+    <dgm:cxn modelId="{758FE339-AC36-41B5-8AE8-65509F51828E}" type="presOf" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{38EBCDAB-4CAB-4BC4-AEC2-0523FFEC2607}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ACB73E4D-4D1F-4D77-976D-7AEC976B1973}" type="presOf" srcId="{F6744856-D00D-4A2A-8790-90BE82698F9D}" destId="{03960D5B-A4E3-44EA-A1BE-26748ABAE9BD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D85378C7-79F2-4AA7-B5E2-E436F8FA95F5}" type="presOf" srcId="{38283BE2-AE4D-463A-AF0D-BAF397A63EA2}" destId="{6D68116B-8C0C-4E52-ABA1-C98F26C8C598}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{107F47BF-5DB7-4745-BECE-786E1AEAD72C}" type="presOf" srcId="{020D83E0-1287-488E-A3E0-672D7AA47BB8}" destId="{125E2351-2980-4373-9351-390A213AD225}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2891ABDE-B677-4717-BDC2-FB0B0B6E159F}" type="presOf" srcId="{F7F8CC26-A0E1-4605-9F22-C60CC546972A}" destId="{E2C4D3E0-A836-40F4-BB48-3DD42D0FB62E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB1D79D0-50CF-4A76-BA08-A12122218E16}" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{3A039B0F-F855-4F48-8297-232298A95547}" srcOrd="3" destOrd="0" parTransId="{A9F544E2-775E-4368-B264-E5F8C59440B1}" sibTransId="{0431FCA7-AA28-4B29-AA5E-808AF85692CE}"/>
+    <dgm:cxn modelId="{776137C3-EC8E-40B0-84D1-CBA65B15A632}" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{FC2D3C72-F3A1-4C91-8D88-24CB88F3BB43}" srcOrd="1" destOrd="0" parTransId="{CB8099E2-1173-44F2-A114-C0EDC66E6006}" sibTransId="{59B2B527-4719-45E4-8CFC-AFE5C2B759A2}"/>
+    <dgm:cxn modelId="{5C3701D3-DCE6-46BD-8C9C-04FD42AA70CA}" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{89CA372E-27D2-4FC9-A425-CCCEE8C984FC}" srcOrd="3" destOrd="0" parTransId="{97815DA4-979B-4B4B-82C7-F1131F189FB3}" sibTransId="{154E20B3-AAB9-4063-BB13-5FC5D88BFCDF}"/>
+    <dgm:cxn modelId="{60AF4282-4FF1-40E3-970A-255C1D6C029E}" type="presOf" srcId="{CB8099E2-1173-44F2-A114-C0EDC66E6006}" destId="{3626950A-EDA9-441D-87A2-5BADBE9027B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{24DCE03C-C6B1-42B1-BE9A-934FA7D0257C}" type="presOf" srcId="{12269FB0-6C97-43D6-AED6-F65016DE0C9A}" destId="{E27D9D5B-6F6F-4088-9201-B8ACAD65D96B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C2567149-7078-4334-BD93-570E1E882B67}" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{913E2C48-5AEF-4B71-A35D-BE9821A095E1}" srcOrd="2" destOrd="0" parTransId="{E44142EE-4432-4B43-B07A-BA00FF1865FB}" sibTransId="{A30DAA5C-462C-446A-AC15-E1FBA9650470}"/>
+    <dgm:cxn modelId="{B3C0E839-E559-4EDA-83FD-DEC9E4007607}" type="presOf" srcId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" destId="{8E527F0A-B1E3-4099-B24A-7DFEE9F020EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BBEB4D94-B0EB-4682-AC4C-8F99CD568642}" type="presOf" srcId="{07281302-1059-4C94-A4D8-E427D3E71A26}" destId="{B165BD26-9C1A-4AD0-A4EA-17719DDD0762}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2681824B-5F1D-412A-A7FB-4620AEEC7B90}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" srcOrd="1" destOrd="0" parTransId="{8E31C894-B092-440D-BAA2-1B92898CDFBE}" sibTransId="{8C696E4D-3AD2-42CD-AC41-2C16E012AF1C}"/>
+    <dgm:cxn modelId="{8CB5487E-7563-4369-9946-C5153930CBF8}" type="presOf" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{E4879F4A-FBDA-4C14-8F0D-8A42C32055B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8C97A870-A965-4BFB-9AD7-96668DDF07A7}" type="presOf" srcId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" destId="{B4DF1B49-E539-4BF1-99B6-B26761F7CF57}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FDD542FE-9FBC-4346-A525-0EC018E91E8F}" type="presOf" srcId="{21E82C0D-A6AF-4510-BDBE-6476610A64ED}" destId="{BED7C01D-3F10-45E1-AF0D-1133700974AB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F1B9A244-0242-4160-9276-78E9A280E2D4}" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{D738EB60-35F4-4543-96E7-213F972C615B}" srcOrd="1" destOrd="0" parTransId="{3429DF63-7959-4F82-9245-6E1EA19C3317}" sibTransId="{E226ACF0-AE8D-45D9-8B9D-9DCB02AAD27B}"/>
+    <dgm:cxn modelId="{8C920A91-6E3A-4AA1-8104-C3DA7D2F8BC7}" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{B6F2BC2A-59AE-495A-BA0A-C8AB0829A10C}" srcOrd="0" destOrd="0" parTransId="{17C96569-557C-4AB4-89F5-A6C24A9D6457}" sibTransId="{AFCF15FA-4656-4F55-BA8B-A21B6E5FC9EA}"/>
+    <dgm:cxn modelId="{A008A9BF-4315-4376-BD7B-88B43E540427}" type="presOf" srcId="{4D41940B-7E8D-4D6D-A0C5-D5D4BAD63D81}" destId="{0B27ADA4-4FC6-45CB-8EEC-2D5CCB3BECFF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4334FCA1-DC4E-4D17-B5CF-0EA6184BAD5B}" srcId="{4E29CB6A-A1B5-4259-8E86-20C250A73340}" destId="{A38F92EC-329E-4B13-878E-C3EC5722155C}" srcOrd="0" destOrd="0" parTransId="{9AC547A2-6F37-4640-AD4A-2A8EC4136337}" sibTransId="{6B0B96FE-B84F-447F-AD18-855A911B7FBC}"/>
+    <dgm:cxn modelId="{79D97DA8-6ECE-46DC-9528-A19E7D5579C8}" type="presOf" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{990F9B54-D087-4B3E-98C1-048FF33B40FB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F01C2F34-0F0E-4BB7-824D-6524CEB9B877}" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" srcOrd="1" destOrd="0" parTransId="{49EBEDF9-13CE-4533-B2AE-CF1B2481B628}" sibTransId="{022E31B1-CA08-4B77-8EEC-E9FFD408A775}"/>
+    <dgm:cxn modelId="{9919B2D0-A6BA-4FD7-AEEA-4754EECD6268}" type="presOf" srcId="{328A9518-235E-488C-AB65-179AF64835E0}" destId="{E6F47166-E984-40D9-8B4D-620D623A2BC8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7DF0B7A8-E5B7-460E-ACCD-265BC25B9149}" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{FF6DC62E-C465-4C17-8511-CC3D6344DDAB}" srcOrd="2" destOrd="0" parTransId="{AA01604F-CB42-43CB-935B-7B5CA9BE7447}" sibTransId="{EE55EBF8-E137-44B4-86EB-6DD43A0B735A}"/>
+    <dgm:cxn modelId="{819E0959-F0A2-4FB1-B896-8931D72B5B35}" type="presOf" srcId="{4DF7693D-E165-48C6-A270-428494D1C75E}" destId="{15654971-5115-4B5D-90AA-926C9E624443}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B8D6945E-F9E8-470C-9AAF-B3D117507D94}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" srcOrd="3" destOrd="0" parTransId="{AC8EAF72-9B33-4F9D-8DC9-2A7474A03EFA}" sibTransId="{4374290B-11F6-4E0C-85BB-1BFD8B9C3801}"/>
+    <dgm:cxn modelId="{C21C25C7-3CD0-4947-BDB5-B6516D6DCBE1}" type="presOf" srcId="{4AC33705-0CD3-4010-B374-24E02A9FDE30}" destId="{FEFD87B6-BA29-41F1-9344-D416BE5158B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B8B8D2C0-B1E3-46A8-BE83-92C9AD7C027E}" type="presOf" srcId="{AC8EAF72-9B33-4F9D-8DC9-2A7474A03EFA}" destId="{844542E4-5DBF-486C-A794-B38151764904}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B18166F5-37C7-4033-8CE7-97AC47728F4C}" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{F7F8CC26-A0E1-4605-9F22-C60CC546972A}" srcOrd="0" destOrd="0" parTransId="{6339EE1A-9D8E-459E-8D8C-C8A1314B772C}" sibTransId="{0E895D85-88E5-4A36-834F-672606E4507A}"/>
+    <dgm:cxn modelId="{E58CFCE3-2D3A-4275-BC36-B4984B4051C2}" type="presOf" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{506FE6C4-031D-4DD5-AF71-20A1976D3F49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{937756F9-8C18-4F58-81BC-E7C7CDA79438}" type="presOf" srcId="{79AD2030-2CA6-4D65-BD82-248F70275F59}" destId="{AD322671-7309-4CDF-8461-673D64EAA1E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5AA5BD98-D696-4069-AFE0-DEA58BC15A20}" type="presOf" srcId="{5542B310-4A47-4EC2-8AC2-82CA7364AA30}" destId="{68144B92-860E-4848-BBCC-54AADC405545}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{870C0431-1ED8-4652-BC1D-AE1619251DC2}" type="presOf" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{CF3E9E42-D047-4E3A-8D3D-B2144D200126}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{847B0C84-19FD-4F94-8856-1F8BA4A5A060}" type="presOf" srcId="{B42A01FB-4B17-4695-BFA0-917571F9FFCC}" destId="{4837BDBF-9A7A-4D6C-ACFA-933D2A97A7B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{430BDDD7-76FC-4B5A-95A0-19D4750C04A0}" type="presOf" srcId="{A38F92EC-329E-4B13-878E-C3EC5722155C}" destId="{8724E3AA-1927-42D7-80FD-29FCD4A2B812}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8B4A3F82-0B91-4339-A996-3BBAD1E56A3E}" type="presOf" srcId="{89CA372E-27D2-4FC9-A425-CCCEE8C984FC}" destId="{9CDA02A0-6588-4B1F-9983-34C62FBACF9A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2E43AF15-EC05-44E4-B611-D32FF5847289}" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" srcOrd="2" destOrd="0" parTransId="{79AD2030-2CA6-4D65-BD82-248F70275F59}" sibTransId="{AEE0BBDA-9DE3-4581-A39C-D7B9436085C0}"/>
+    <dgm:cxn modelId="{A1810B0C-2B2D-44F3-BF45-8BA7C4401D8C}" type="presOf" srcId="{0A81C53D-F264-4004-99B1-697490FC3EB2}" destId="{BD42DA75-3A41-4B4E-9212-830A644A2112}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0035B2D5-BF82-449C-834F-518966F06C9E}" type="presOf" srcId="{913E2C48-5AEF-4B71-A35D-BE9821A095E1}" destId="{BA51F673-236C-4948-8018-1915EE9A25BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9919B2D0-A6BA-4FD7-AEEA-4754EECD6268}" type="presOf" srcId="{328A9518-235E-488C-AB65-179AF64835E0}" destId="{E6F47166-E984-40D9-8B4D-620D623A2BC8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{47A418FB-1724-4590-A528-23F39BD894C5}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" srcOrd="4" destOrd="0" parTransId="{B6D85304-4CF5-413B-B962-60DF3DA97DAB}" sibTransId="{B77FD464-11E8-44E0-9742-AC4C8DBE985E}"/>
+    <dgm:cxn modelId="{53E5D69D-6C9F-44CB-933A-4024218E36C6}" type="presOf" srcId="{4E29CB6A-A1B5-4259-8E86-20C250A73340}" destId="{37FC0819-F781-44ED-BEDA-09083A47ED25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6691D37D-2AC9-471C-9B3D-F268BE5F4F93}" type="presOf" srcId="{03BD8A55-5B8B-485A-95C5-74A087D970B9}" destId="{418A24F8-11AB-468C-A24A-33F5E3762FD2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3179EF22-09D3-45C9-A761-E165E0E9CD67}" type="presOf" srcId="{B5778B0F-8024-4AEF-839B-FB131BA7796F}" destId="{2CE8079E-3CB0-4BE9-82D2-B658B5D669B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CB8AFB0F-73FB-4F70-9A6A-26E1882251D6}" type="presOf" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{C46C3A53-5460-413F-8FA4-EB3DFBE10FC0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0B7F8403-FCF2-450E-9BD0-2BA7B4D5C07A}" type="presOf" srcId="{FF6DC62E-C465-4C17-8511-CC3D6344DDAB}" destId="{6D590515-9C66-4E47-8977-1C838C9F5400}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3EAAFAEE-104E-4417-AE32-1419F79666E3}" type="presOf" srcId="{0A81C53D-F264-4004-99B1-697490FC3EB2}" destId="{B52E93F3-7A4F-4B8E-9C15-C74D3BC67DF1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{18C1DC7E-E8D1-487C-B5A0-51A5316A0111}" type="presOf" srcId="{38283BE2-AE4D-463A-AF0D-BAF397A63EA2}" destId="{1F2C34B4-F55C-487A-8E0B-08E80FE5886F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8BDFE904-9AD7-4564-9CDC-D79BEA45394E}" type="presOf" srcId="{01072C84-904C-4FDA-AA21-53A24672D3D3}" destId="{9D8439EC-B130-4DE3-A3AE-EA7FEE339D32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{30277FE4-F04F-42C3-8E23-893C853B0B08}" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{6E447E43-CC2D-4EF3-9E3F-86E4AF5196FB}" srcOrd="3" destOrd="0" parTransId="{04A474D2-0673-4EAD-BF97-59F7AE2B42B7}" sibTransId="{3917B52E-3050-4153-A279-62C7CA142B31}"/>
+    <dgm:cxn modelId="{A54FB9E9-69CF-4522-B994-D8A888376649}" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{01072C84-904C-4FDA-AA21-53A24672D3D3}" srcOrd="1" destOrd="0" parTransId="{1A24CFD9-2209-4FB3-82F2-86303441B72A}" sibTransId="{3892CAE9-63FA-4EF9-A7EB-355F2BE9AA17}"/>
+    <dgm:cxn modelId="{9A6B4DE7-3DE1-4076-8E83-ADEFEC4FFF97}" type="presOf" srcId="{3429DF63-7959-4F82-9245-6E1EA19C3317}" destId="{D8F646F0-48F6-468E-BEF7-B832F3A12986}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FE61B045-0E0D-4319-BC54-30BCFF1F38CC}" type="presOf" srcId="{12269FB0-6C97-43D6-AED6-F65016DE0C9A}" destId="{2ECD3799-45F5-45A6-A797-032898DF0932}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{02412198-070F-4684-B7C4-2D6F4D1F65E8}" type="presOf" srcId="{BB691C9E-16B7-4432-9CD4-3132F94D2311}" destId="{006B245B-FA11-468F-8A40-81AAE7A69365}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{507A2604-3395-42AC-842E-76EEBE72AA07}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{4E29CB6A-A1B5-4259-8E86-20C250A73340}" srcOrd="0" destOrd="0" parTransId="{21E82C0D-A6AF-4510-BDBE-6476610A64ED}" sibTransId="{D426C0D8-4D12-4A0F-8876-13AF56927E16}"/>
+    <dgm:cxn modelId="{78B99BCC-B788-44F3-A2B4-DCE23E038E2D}" type="presOf" srcId="{512E93EE-F903-48C7-ACB3-43482E09ECC6}" destId="{AB57AC18-F729-4242-9EA9-654839E7F1DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{41FA8339-06C7-4EDE-81A0-EAF77DB11726}" type="presOf" srcId="{FC2D3C72-F3A1-4C91-8D88-24CB88F3BB43}" destId="{653702B7-33CE-4DB9-9316-C41A1DB023B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9379B80E-1EC1-4002-AACE-A08386F1419F}" type="presOf" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{2BFF62F0-4FD1-404F-B3CB-E958DC91FE97}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4CB2A64D-A424-400A-B25B-3F4EB4A837DB}" type="presOf" srcId="{B6F2BC2A-59AE-495A-BA0A-C8AB0829A10C}" destId="{2079EBD9-E1F1-481A-A906-994DF482D429}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D8DB5021-7173-4E29-9379-2943466BD2FC}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{43932AA0-816A-439B-A5A1-52DBE7882114}" srcOrd="2" destOrd="0" parTransId="{B42A01FB-4B17-4695-BFA0-917571F9FFCC}" sibTransId="{740876E3-2594-4B54-90AB-02C66384BA72}"/>
+    <dgm:cxn modelId="{8E7B7363-8BFC-4092-8A3C-24D0C4DFD6B7}" type="presOf" srcId="{03BD8A55-5B8B-485A-95C5-74A087D970B9}" destId="{696010EE-9843-4E21-8D22-1D51C9090125}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{818E7947-FD20-4322-915D-F834726C151C}" type="presOf" srcId="{49EBEDF9-13CE-4533-B2AE-CF1B2481B628}" destId="{4EDEFCF5-BA47-40D2-BED8-AE54D1C8B0B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{70FB6794-748E-4727-9C86-5A57EA61977F}" type="presOf" srcId="{3A039B0F-F855-4F48-8297-232298A95547}" destId="{1683CB4D-F4E7-4D6B-9356-F40B355E52BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F57FACEB-9C0C-4E4D-9CBB-00399F094FA3}" type="presOf" srcId="{B6F2BC2A-59AE-495A-BA0A-C8AB0829A10C}" destId="{888AEA48-AA0F-42DA-B441-31BAF32BD9B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{306791B8-03D4-49A0-9312-43078170C1A5}" type="presOf" srcId="{6E447E43-CC2D-4EF3-9E3F-86E4AF5196FB}" destId="{7FC3CE6B-6928-4689-8833-DE24AE364E13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4C1FB730-7C4A-4714-8990-AAAB4EF8A9D9}" type="presOf" srcId="{F19FDF29-F3CD-4863-AE1C-A713C75B09BE}" destId="{51FCBE20-6338-4E56-A5D7-E48DD7600E1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{57448C9B-F736-491A-ABCA-120AA2F32F3B}" type="presOf" srcId="{D79741C5-86A5-406C-A77B-C43C13C2B744}" destId="{6B143504-2B91-4EA4-B422-7708CAB0C6DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{952356C7-8037-44D9-83E9-2DF81256D341}" type="presOf" srcId="{61EA42AB-C2A6-4310-B9AA-19D0569B7ADD}" destId="{7B98E3AA-C54D-46D7-A02A-6AA3B99BA60F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3E57DF4E-47B3-4BDA-9085-8CB4E49FA1C0}" type="presOf" srcId="{04A474D2-0673-4EAD-BF97-59F7AE2B42B7}" destId="{F848ACC5-918C-402C-B8D5-DFBF13D4C856}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{43FB17B7-FFC6-4AE1-9079-2F4EDFF868DA}" type="presOf" srcId="{97815DA4-979B-4B4B-82C7-F1131F189FB3}" destId="{57196472-5CC1-4CFD-B086-E9456CA0CD2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{47A7A4EC-F311-46B3-AF9E-7EDB624DA53B}" type="presOf" srcId="{8E31C894-B092-440D-BAA2-1B92898CDFBE}" destId="{D61B5542-47D8-447E-A673-4E59CC213F1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{973471B9-D56E-4F5D-96DE-58E43B992F4C}" type="presOf" srcId="{B5778B0F-8024-4AEF-839B-FB131BA7796F}" destId="{FF5854F4-FA1D-4D06-B4D3-671680E78A2B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B190B9CF-1F28-4341-8513-DBDC5622EE26}" type="presOf" srcId="{AA01604F-CB42-43CB-935B-7B5CA9BE7447}" destId="{F3ED313C-A101-477D-BBAB-4D3C90FE9BB5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6AF5B5E3-4C3F-4279-9D8A-25C88D1587FA}" type="presOf" srcId="{01072C84-904C-4FDA-AA21-53A24672D3D3}" destId="{242F5DA7-AD8A-4397-B4A6-0E19B7DBE9EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3AA69591-FDC5-4D73-A679-AEC8D341BA46}" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" srcOrd="2" destOrd="0" parTransId="{4D41940B-7E8D-4D6D-A0C5-D5D4BAD63D81}" sibTransId="{B8A57F6E-5DAA-4FAD-B76D-A5E3FD60C3AE}"/>
+    <dgm:cxn modelId="{A854D19C-E18E-4C9E-B526-C1F89E8C1698}" type="presOf" srcId="{4E29CB6A-A1B5-4259-8E86-20C250A73340}" destId="{A6FD366F-75C2-49A2-AD5A-917970EF584F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB27172A-DE49-4AD9-A7E9-7192B4CDF6A0}" type="presOf" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{22D8EAD5-7001-4927-BB6F-0F2B38BB7A97}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6C0CC9EC-5118-4709-A350-8003ED963D62}" type="presOf" srcId="{FAEA96DB-5968-4182-98E0-89F5D2F7CDAB}" destId="{AED83BFD-9ECA-4CF8-BF5B-B2752AEEB3F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5FC7B25D-69CA-43CC-8E15-4CD257817B5A}" type="presOf" srcId="{4DF7693D-E165-48C6-A270-428494D1C75E}" destId="{E58426A5-D035-4475-9984-6339D6978653}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7EFE4CB3-2C25-47F2-87BE-C2B07974B497}" type="presOf" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{CF08B127-57FE-49D0-A808-321D0BA93BDD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{148027CE-4793-4C3E-B9D9-525935219DB2}" type="presOf" srcId="{6339EE1A-9D8E-459E-8D8C-C8A1314B772C}" destId="{CB6E0CAE-8773-40C7-A7FC-53E0A1854258}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FF20EA7B-0BCF-43EC-B3AF-C737C4844A30}" type="presOf" srcId="{F6744856-D00D-4A2A-8790-90BE82698F9D}" destId="{B55DDFB6-431B-4D97-A845-DF411328A575}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D772498E-0364-47EF-9749-0FDFC0EC2A62}" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{F6744856-D00D-4A2A-8790-90BE82698F9D}" srcOrd="2" destOrd="0" parTransId="{A37A91FC-2BB7-4C62-A698-7E60FF60DA8F}" sibTransId="{F8ABDE00-FB07-4610-BF15-BE6354835CAD}"/>
     <dgm:cxn modelId="{ACD724F8-0655-46B9-A22B-C36C8D05026B}" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{328A9518-235E-488C-AB65-179AF64835E0}" srcOrd="1" destOrd="0" parTransId="{FAEA96DB-5968-4182-98E0-89F5D2F7CDAB}" sibTransId="{C46F2EB4-6DD2-40B4-AFAE-8A42ACE5128F}"/>
-    <dgm:cxn modelId="{5FC7B25D-69CA-43CC-8E15-4CD257817B5A}" type="presOf" srcId="{4DF7693D-E165-48C6-A270-428494D1C75E}" destId="{E58426A5-D035-4475-9984-6339D6978653}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2891ABDE-B677-4717-BDC2-FB0B0B6E159F}" type="presOf" srcId="{F7F8CC26-A0E1-4605-9F22-C60CC546972A}" destId="{E2C4D3E0-A836-40F4-BB48-3DD42D0FB62E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{18C1DC7E-E8D1-487C-B5A0-51A5316A0111}" type="presOf" srcId="{38283BE2-AE4D-463A-AF0D-BAF397A63EA2}" destId="{1F2C34B4-F55C-487A-8E0B-08E80FE5886F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6AF5B5E3-4C3F-4279-9D8A-25C88D1587FA}" type="presOf" srcId="{01072C84-904C-4FDA-AA21-53A24672D3D3}" destId="{242F5DA7-AD8A-4397-B4A6-0E19B7DBE9EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C7572141-F510-4500-AFC3-3FF930B1C356}" type="presOf" srcId="{9AC547A2-6F37-4640-AD4A-2A8EC4136337}" destId="{CF2A8435-EF4C-4F72-BC92-8BC82CCF5DE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D29C741D-74C3-42A6-81B8-EA1A6F71C4AF}" type="presOf" srcId="{A38F92EC-329E-4B13-878E-C3EC5722155C}" destId="{1D1A3CD3-61BB-429D-9833-9DC830D89DC0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5D2ACDAD-EF19-4ABD-82CB-153600D0702B}" type="presOf" srcId="{FC2D3C72-F3A1-4C91-8D88-24CB88F3BB43}" destId="{21EACFA5-6757-4BF3-9A00-EC8E24809022}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{826E43F2-88FF-4E90-90D8-717A74600C68}" type="presOf" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{1F74A08B-B5A7-4163-9E97-D976F5740478}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{41AF749E-BA2A-46A5-A7B1-831B1390755A}" type="presOf" srcId="{6C76580A-8D65-4EA6-BB13-362E23672695}" destId="{F847DC6C-1438-463C-8164-51F7DA39BB83}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E9028C50-DC14-4B33-8724-C8BC75E10A81}" type="presOf" srcId="{1A24CFD9-2209-4FB3-82F2-86303441B72A}" destId="{67C105B5-A18A-4173-A30B-2E2CEBC6AFEE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BF027710-8863-4CF5-A36E-0651D470268B}" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{38283BE2-AE4D-463A-AF0D-BAF397A63EA2}" srcOrd="2" destOrd="0" parTransId="{C2594B20-4D11-4858-A167-7DD60B7B2D03}" sibTransId="{4F1F6589-30F2-4DEC-ACA5-D45C06E9C2E2}"/>
+    <dgm:cxn modelId="{EC3C164A-42DE-4DBB-94AC-5AC17F20E8BF}" srcId="{512E93EE-F903-48C7-ACB3-43482E09ECC6}" destId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" srcOrd="0" destOrd="0" parTransId="{F735260D-FD77-478C-92AB-EAF8EF02A53C}" sibTransId="{C66251A3-9A4B-497E-BF06-3857041AA6BD}"/>
+    <dgm:cxn modelId="{BB249E05-E344-46D0-A2DA-970E319AA399}" type="presOf" srcId="{929529B2-F05F-464C-BF29-6EB0688953A3}" destId="{7B46283E-4832-474D-99BE-65F042D907C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7A69ABA5-270B-46E4-B32A-EF4FCEAC3D55}" type="presOf" srcId="{F19FDF29-F3CD-4863-AE1C-A713C75B09BE}" destId="{3791DA27-7FAF-4737-9A38-244CBBECD1A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4ED4FFF3-C463-40C3-AE01-B5FBE745383E}" type="presOf" srcId="{A37A91FC-2BB7-4C62-A698-7E60FF60DA8F}" destId="{F9CB9890-9253-47C3-9671-1F1EE12633D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{840AD5DF-81D3-4F67-91B2-12A9146B7548}" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{F19FDF29-F3CD-4863-AE1C-A713C75B09BE}" srcOrd="2" destOrd="0" parTransId="{D79741C5-86A5-406C-A77B-C43C13C2B744}" sibTransId="{8B815D87-C276-4273-BD61-C9A421A097FD}"/>
+    <dgm:cxn modelId="{644660D4-C139-469F-9FDD-1B87487BE196}" type="presOf" srcId="{3A039B0F-F855-4F48-8297-232298A95547}" destId="{BAD4C95D-1DEF-4C89-A5D0-D5BF72FC3581}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{10B13625-4969-4EC5-9880-268C626812A3}" type="presOf" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{A3C4A117-ACEA-4D27-BF9F-97DC78CD6A0A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{75DAF1D9-C798-477F-B356-9788860BD847}" type="presOf" srcId="{B6D85304-4CF5-413B-B962-60DF3DA97DAB}" destId="{B9F4681F-4F15-49BD-A4E3-B8359F2D2C2B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9C67F2BF-4748-404F-8D17-591A98609B44}" type="presOf" srcId="{C2594B20-4D11-4858-A167-7DD60B7B2D03}" destId="{CA12B16E-B747-4F4C-A7BA-6144FF7A6FA2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D7115FC1-444A-427D-9E5F-C4EB3736A6AD}" type="presOf" srcId="{61EA42AB-C2A6-4310-B9AA-19D0569B7ADD}" destId="{F78CA574-1E5A-4CA2-9484-6F2F67C4177A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EAA787E4-25A7-4705-A8CE-286E90F74EE3}" type="presOf" srcId="{FE9053F8-50AC-42EF-98D6-31D682990E80}" destId="{25AB6DB2-8699-4B99-AC48-45A714B12F29}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{694DE089-2AB4-4239-B82B-6C208CB25C6C}" type="presOf" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{327D9409-9EAF-4361-A9F9-B5B3C074A187}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EC3C164A-42DE-4DBB-94AC-5AC17F20E8BF}" srcId="{512E93EE-F903-48C7-ACB3-43482E09ECC6}" destId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" srcOrd="0" destOrd="0" parTransId="{F735260D-FD77-478C-92AB-EAF8EF02A53C}" sibTransId="{C66251A3-9A4B-497E-BF06-3857041AA6BD}"/>
-    <dgm:cxn modelId="{3179EF22-09D3-45C9-A761-E165E0E9CD67}" type="presOf" srcId="{B5778B0F-8024-4AEF-839B-FB131BA7796F}" destId="{2CE8079E-3CB0-4BE9-82D2-B658B5D669B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9379B80E-1EC1-4002-AACE-A08386F1419F}" type="presOf" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{2BFF62F0-4FD1-404F-B3CB-E958DC91FE97}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F604CB53-64C3-4AEA-B9B4-A1CE17B82534}" type="presOf" srcId="{A9F544E2-775E-4368-B264-E5F8C59440B1}" destId="{938C103A-9036-4A49-BF38-5F76B23F6235}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A4990D9E-1D71-4917-89D0-DA58ADF00502}" type="presOf" srcId="{D738EB60-35F4-4543-96E7-213F972C615B}" destId="{F371728A-62E8-4726-AE1C-8F640D33178E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3685E2B8-FF6E-40E6-AD8E-656BF04D28DD}" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{4DF7693D-E165-48C6-A270-428494D1C75E}" srcOrd="0" destOrd="0" parTransId="{6C76580A-8D65-4EA6-BB13-362E23672695}" sibTransId="{8AA98F1C-9354-403C-8276-D3F2585C6A90}"/>
+    <dgm:cxn modelId="{0B19C495-EC44-46CC-A57C-2F1E8EAB2D81}" type="presOf" srcId="{89CA372E-27D2-4FC9-A425-CCCEE8C984FC}" destId="{56319D7B-7B89-4368-9034-3CF8691D7ECE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20D0B02C-AC64-4AEB-99B4-6DC309FCA4C2}" type="presOf" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{6A4B777C-F52D-41E6-BFDB-472483B86B0D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{323353F4-C821-405D-8E4F-79C7ABB3B7CB}" type="presOf" srcId="{FF6DC62E-C465-4C17-8511-CC3D6344DDAB}" destId="{7420ECEE-7EC9-4E55-AB03-DCB7D4534804}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1B65CDD7-4E6B-43EF-B659-C3144E57E80B}" type="presOf" srcId="{F7F8CC26-A0E1-4605-9F22-C60CC546972A}" destId="{BA773CFB-0EFD-40A7-9232-FF4A34588AA4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7B35FF14-FB52-48AF-98AA-24DA216703A3}" type="presOf" srcId="{AA3FE40C-D013-4544-BDA7-F19E369B0478}" destId="{2ADFDF86-C8E9-44DA-9A05-637FC366CCB9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F42D760D-8CEC-4859-81E0-B1083CFAAE59}" type="presOf" srcId="{BCD87DDD-F763-4370-A26B-2532B2531EF1}" destId="{94B223F4-C54C-4CBD-8305-57EAF19593B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4070564C-EE4D-4690-8C3D-F2D606CBA263}" type="presOf" srcId="{D738EB60-35F4-4543-96E7-213F972C615B}" destId="{5C9934EC-F4C9-4527-89CD-DBB332D34F31}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EA037C09-9574-424F-AF98-465F167EA1A9}" type="presOf" srcId="{82DFC2F5-7D44-44AD-8EE4-BCE630C399E0}" destId="{0B618128-57DC-414C-94AE-A9E759CCE0C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9DC06CBA-BB36-488B-B44D-55C63A113D4B}" type="presOf" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{E19A47D6-6792-4E4A-A382-811BD38908BD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5D2ACDAD-EF19-4ABD-82CB-153600D0702B}" type="presOf" srcId="{FC2D3C72-F3A1-4C91-8D88-24CB88F3BB43}" destId="{21EACFA5-6757-4BF3-9A00-EC8E24809022}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F47E72A-757F-428E-8989-5A01DAD16E84}" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" srcOrd="0" destOrd="0" parTransId="{BB691C9E-16B7-4432-9CD4-3132F94D2311}" sibTransId="{D5CAEDEA-A71D-41B4-B1D0-50C2B0449244}"/>
-    <dgm:cxn modelId="{9A6B4DE7-3DE1-4076-8E83-ADEFEC4FFF97}" type="presOf" srcId="{3429DF63-7959-4F82-9245-6E1EA19C3317}" destId="{D8F646F0-48F6-468E-BEF7-B832F3A12986}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E9028C50-DC14-4B33-8724-C8BC75E10A81}" type="presOf" srcId="{1A24CFD9-2209-4FB3-82F2-86303441B72A}" destId="{67C105B5-A18A-4173-A30B-2E2CEBC6AFEE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A008A9BF-4315-4376-BD7B-88B43E540427}" type="presOf" srcId="{4D41940B-7E8D-4D6D-A0C5-D5D4BAD63D81}" destId="{0B27ADA4-4FC6-45CB-8EEC-2D5CCB3BECFF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{90B20F4F-CCA1-46F3-A286-A4C93CD2245F}" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{61EA42AB-C2A6-4310-B9AA-19D0569B7ADD}" srcOrd="0" destOrd="0" parTransId="{AA3FE40C-D013-4544-BDA7-F19E369B0478}" sibTransId="{C9F938D1-AF43-40C2-AF81-71AF6B96AB97}"/>
-    <dgm:cxn modelId="{F42D760D-8CEC-4859-81E0-B1083CFAAE59}" type="presOf" srcId="{BCD87DDD-F763-4370-A26B-2532B2531EF1}" destId="{94B223F4-C54C-4CBD-8305-57EAF19593B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE3905C5-0660-4D26-AAA0-8A8C736089C7}" type="presOf" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{79A9B0BA-3E0C-4F14-B952-82F8EB4DE105}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AFDFEB2B-36B4-47CD-BC59-167F8B5DEDA6}" type="presOf" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{C58E394D-C327-43B4-8658-28557153CD53}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{365712D4-4195-4B69-9373-2AF73C6BCE7A}" type="presOf" srcId="{929529B2-F05F-464C-BF29-6EB0688953A3}" destId="{31C2BC30-14B6-4B77-811E-F0CAF2E264B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F7D2263B-28CD-4BE0-BC75-464907B8BD02}" type="presOf" srcId="{BCD87DDD-F763-4370-A26B-2532B2531EF1}" destId="{ABA89C76-2C94-4CB7-83E3-BE8F20619F14}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DCC26E5A-8A17-4BCF-85BB-ABF9E1E887BD}" type="presOf" srcId="{17C96569-557C-4AB4-89F5-A6C24A9D6457}" destId="{D2A58E3F-D90C-4A8C-9B35-4D6085E91012}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{45F2C179-7C02-4F53-BFD0-C8FC34D27977}" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{03BD8A55-5B8B-485A-95C5-74A087D970B9}" srcOrd="0" destOrd="0" parTransId="{020D83E0-1287-488E-A3E0-672D7AA47BB8}" sibTransId="{BC27DCFA-2AB1-40D4-9394-630A9F291672}"/>
     <dgm:cxn modelId="{D71D4387-14A1-4A98-AF6F-A0E0F6FB7EB5}" type="presOf" srcId="{913E2C48-5AEF-4B71-A35D-BE9821A095E1}" destId="{53D893D3-2895-41A9-A198-57DDBE3E72FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{826E43F2-88FF-4E90-90D8-717A74600C68}" type="presOf" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{1F74A08B-B5A7-4163-9E97-D976F5740478}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{10B13625-4969-4EC5-9880-268C626812A3}" type="presOf" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{A3C4A117-ACEA-4D27-BF9F-97DC78CD6A0A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{973471B9-D56E-4F5D-96DE-58E43B992F4C}" type="presOf" srcId="{B5778B0F-8024-4AEF-839B-FB131BA7796F}" destId="{FF5854F4-FA1D-4D06-B4D3-671680E78A2B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8BDFE904-9AD7-4564-9CDC-D79BEA45394E}" type="presOf" srcId="{01072C84-904C-4FDA-AA21-53A24672D3D3}" destId="{9D8439EC-B130-4DE3-A3AE-EA7FEE339D32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{430748AA-5E3E-4548-8E62-1B622955C31F}" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{B5778B0F-8024-4AEF-839B-FB131BA7796F}" srcOrd="1" destOrd="0" parTransId="{07281302-1059-4C94-A4D8-E427D3E71A26}" sibTransId="{E1525B3F-64AF-4787-9BA7-799F7A5FCF01}"/>
-    <dgm:cxn modelId="{486C3A1D-9022-42B9-9BC6-6A70F72CF097}" type="presOf" srcId="{E44142EE-4432-4B43-B07A-BA00FF1865FB}" destId="{EF57B2C7-9C7C-4EB6-A2C3-F3C8DDC81CBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E58CFCE3-2D3A-4275-BC36-B4984B4051C2}" type="presOf" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{506FE6C4-031D-4DD5-AF71-20A1976D3F49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{70FB6794-748E-4727-9C86-5A57EA61977F}" type="presOf" srcId="{3A039B0F-F855-4F48-8297-232298A95547}" destId="{1683CB4D-F4E7-4D6B-9356-F40B355E52BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EAA787E4-25A7-4705-A8CE-286E90F74EE3}" type="presOf" srcId="{FE9053F8-50AC-42EF-98D6-31D682990E80}" destId="{25AB6DB2-8699-4B99-AC48-45A714B12F29}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7EFE4CB3-2C25-47F2-87BE-C2B07974B497}" type="presOf" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{CF08B127-57FE-49D0-A808-321D0BA93BDD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8C97A870-A965-4BFB-9AD7-96668DDF07A7}" type="presOf" srcId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" destId="{B4DF1B49-E539-4BF1-99B6-B26761F7CF57}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AB27172A-DE49-4AD9-A7E9-7192B4CDF6A0}" type="presOf" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{22D8EAD5-7001-4927-BB6F-0F2B38BB7A97}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B190B9CF-1F28-4341-8513-DBDC5622EE26}" type="presOf" srcId="{AA01604F-CB42-43CB-935B-7B5CA9BE7447}" destId="{F3ED313C-A101-477D-BBAB-4D3C90FE9BB5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4ED4FFF3-C463-40C3-AE01-B5FBE745383E}" type="presOf" srcId="{A37A91FC-2BB7-4C62-A698-7E60FF60DA8F}" destId="{F9CB9890-9253-47C3-9671-1F1EE12633D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{68B28B31-6179-4CB6-B67D-514EDB7E7A21}" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{0A81C53D-F264-4004-99B1-697490FC3EB2}" srcOrd="0" destOrd="0" parTransId="{82DFC2F5-7D44-44AD-8EE4-BCE630C399E0}" sibTransId="{2102D414-337D-4166-A76F-A548E1AE1FAF}"/>
-    <dgm:cxn modelId="{FE9B4385-0712-454C-8269-EE28D71ECC45}" srcId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" destId="{929529B2-F05F-464C-BF29-6EB0688953A3}" srcOrd="1" destOrd="0" parTransId="{4AC33705-0CD3-4010-B374-24E02A9FDE30}" sibTransId="{DD805DB2-ACDB-40F4-8571-0CC5EF8B3885}"/>
-    <dgm:cxn modelId="{0B19C495-EC44-46CC-A57C-2F1E8EAB2D81}" type="presOf" srcId="{89CA372E-27D2-4FC9-A425-CCCEE8C984FC}" destId="{56319D7B-7B89-4368-9034-3CF8691D7ECE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4070564C-EE4D-4690-8C3D-F2D606CBA263}" type="presOf" srcId="{D738EB60-35F4-4543-96E7-213F972C615B}" destId="{5C9934EC-F4C9-4527-89CD-DBB332D34F31}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4C1FB730-7C4A-4714-8990-AAAB4EF8A9D9}" type="presOf" srcId="{F19FDF29-F3CD-4863-AE1C-A713C75B09BE}" destId="{51FCBE20-6338-4E56-A5D7-E48DD7600E1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F1B9A244-0242-4160-9276-78E9A280E2D4}" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{D738EB60-35F4-4543-96E7-213F972C615B}" srcOrd="1" destOrd="0" parTransId="{3429DF63-7959-4F82-9245-6E1EA19C3317}" sibTransId="{E226ACF0-AE8D-45D9-8B9D-9DCB02AAD27B}"/>
-    <dgm:cxn modelId="{9C67F2BF-4748-404F-8D17-591A98609B44}" type="presOf" srcId="{C2594B20-4D11-4858-A167-7DD60B7B2D03}" destId="{CA12B16E-B747-4F4C-A7BA-6144FF7A6FA2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{507A2604-3395-42AC-842E-76EEBE72AA07}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{4E29CB6A-A1B5-4259-8E86-20C250A73340}" srcOrd="0" destOrd="0" parTransId="{21E82C0D-A6AF-4510-BDBE-6476610A64ED}" sibTransId="{D426C0D8-4D12-4A0F-8876-13AF56927E16}"/>
-    <dgm:cxn modelId="{ACB73E4D-4D1F-4D77-976D-7AEC976B1973}" type="presOf" srcId="{F6744856-D00D-4A2A-8790-90BE82698F9D}" destId="{03960D5B-A4E3-44EA-A1BE-26748ABAE9BD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F7D2263B-28CD-4BE0-BC75-464907B8BD02}" type="presOf" srcId="{BCD87DDD-F763-4370-A26B-2532B2531EF1}" destId="{ABA89C76-2C94-4CB7-83E3-BE8F20619F14}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BBEB4D94-B0EB-4682-AC4C-8F99CD568642}" type="presOf" srcId="{07281302-1059-4C94-A4D8-E427D3E71A26}" destId="{B165BD26-9C1A-4AD0-A4EA-17719DDD0762}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{107F47BF-5DB7-4745-BECE-786E1AEAD72C}" type="presOf" srcId="{020D83E0-1287-488E-A3E0-672D7AA47BB8}" destId="{125E2351-2980-4373-9351-390A213AD225}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A854D19C-E18E-4C9E-B526-C1F89E8C1698}" type="presOf" srcId="{4E29CB6A-A1B5-4259-8E86-20C250A73340}" destId="{A6FD366F-75C2-49A2-AD5A-917970EF584F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{02412198-070F-4684-B7C4-2D6F4D1F65E8}" type="presOf" srcId="{BB691C9E-16B7-4432-9CD4-3132F94D2311}" destId="{006B245B-FA11-468F-8A40-81AAE7A69365}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{30277FE4-F04F-42C3-8E23-893C853B0B08}" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{6E447E43-CC2D-4EF3-9E3F-86E4AF5196FB}" srcOrd="3" destOrd="0" parTransId="{04A474D2-0673-4EAD-BF97-59F7AE2B42B7}" sibTransId="{3917B52E-3050-4153-A279-62C7CA142B31}"/>
-    <dgm:cxn modelId="{4CB2A64D-A424-400A-B25B-3F4EB4A837DB}" type="presOf" srcId="{B6F2BC2A-59AE-495A-BA0A-C8AB0829A10C}" destId="{2079EBD9-E1F1-481A-A906-994DF482D429}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{776137C3-EC8E-40B0-84D1-CBA65B15A632}" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{FC2D3C72-F3A1-4C91-8D88-24CB88F3BB43}" srcOrd="1" destOrd="0" parTransId="{CB8099E2-1173-44F2-A114-C0EDC66E6006}" sibTransId="{59B2B527-4719-45E4-8CFC-AFE5C2B759A2}"/>
-    <dgm:cxn modelId="{870C0431-1ED8-4652-BC1D-AE1619251DC2}" type="presOf" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{CF3E9E42-D047-4E3A-8D3D-B2144D200126}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F57FACEB-9C0C-4E4D-9CBB-00399F094FA3}" type="presOf" srcId="{B6F2BC2A-59AE-495A-BA0A-C8AB0829A10C}" destId="{888AEA48-AA0F-42DA-B441-31BAF32BD9B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{840AD5DF-81D3-4F67-91B2-12A9146B7548}" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{F19FDF29-F3CD-4863-AE1C-A713C75B09BE}" srcOrd="2" destOrd="0" parTransId="{D79741C5-86A5-406C-A77B-C43C13C2B744}" sibTransId="{8B815D87-C276-4273-BD61-C9A421A097FD}"/>
-    <dgm:cxn modelId="{BF027710-8863-4CF5-A36E-0651D470268B}" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{38283BE2-AE4D-463A-AF0D-BAF397A63EA2}" srcOrd="2" destOrd="0" parTransId="{C2594B20-4D11-4858-A167-7DD60B7B2D03}" sibTransId="{4F1F6589-30F2-4DEC-ACA5-D45C06E9C2E2}"/>
-    <dgm:cxn modelId="{43FB17B7-FFC6-4AE1-9079-2F4EDFF868DA}" type="presOf" srcId="{97815DA4-979B-4B4B-82C7-F1131F189FB3}" destId="{57196472-5CC1-4CFD-B086-E9456CA0CD2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{93CDB48E-828A-48EF-BF1A-4CE3227AFF6F}" type="presOf" srcId="{6E447E43-CC2D-4EF3-9E3F-86E4AF5196FB}" destId="{C182DF9C-C386-42E0-B4D6-05C35F79C59D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8B4A3F82-0B91-4339-A996-3BBAD1E56A3E}" type="presOf" srcId="{89CA372E-27D2-4FC9-A425-CCCEE8C984FC}" destId="{9CDA02A0-6588-4B1F-9983-34C62FBACF9A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{53E5D69D-6C9F-44CB-933A-4024218E36C6}" type="presOf" srcId="{4E29CB6A-A1B5-4259-8E86-20C250A73340}" destId="{37FC0819-F781-44ED-BEDA-09083A47ED25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7B35FF14-FB52-48AF-98AA-24DA216703A3}" type="presOf" srcId="{AA3FE40C-D013-4544-BDA7-F19E369B0478}" destId="{2ADFDF86-C8E9-44DA-9A05-637FC366CCB9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D7115FC1-444A-427D-9E5F-C4EB3736A6AD}" type="presOf" srcId="{61EA42AB-C2A6-4310-B9AA-19D0569B7ADD}" destId="{F78CA574-1E5A-4CA2-9484-6F2F67C4177A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DCC26E5A-8A17-4BCF-85BB-ABF9E1E887BD}" type="presOf" srcId="{17C96569-557C-4AB4-89F5-A6C24A9D6457}" destId="{D2A58E3F-D90C-4A8C-9B35-4D6085E91012}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B18166F5-37C7-4033-8CE7-97AC47728F4C}" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{F7F8CC26-A0E1-4605-9F22-C60CC546972A}" srcOrd="0" destOrd="0" parTransId="{6339EE1A-9D8E-459E-8D8C-C8A1314B772C}" sibTransId="{0E895D85-88E5-4A36-834F-672606E4507A}"/>
-    <dgm:cxn modelId="{24DCE03C-C6B1-42B1-BE9A-934FA7D0257C}" type="presOf" srcId="{12269FB0-6C97-43D6-AED6-F65016DE0C9A}" destId="{E27D9D5B-6F6F-4088-9201-B8ACAD65D96B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FB1D79D0-50CF-4A76-BA08-A12122218E16}" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{3A039B0F-F855-4F48-8297-232298A95547}" srcOrd="3" destOrd="0" parTransId="{A9F544E2-775E-4368-B264-E5F8C59440B1}" sibTransId="{0431FCA7-AA28-4B29-AA5E-808AF85692CE}"/>
-    <dgm:cxn modelId="{57448C9B-F736-491A-ABCA-120AA2F32F3B}" type="presOf" srcId="{D79741C5-86A5-406C-A77B-C43C13C2B744}" destId="{6B143504-2B91-4EA4-B422-7708CAB0C6DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B3C0E839-E559-4EDA-83FD-DEC9E4007607}" type="presOf" srcId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" destId="{8E527F0A-B1E3-4099-B24A-7DFEE9F020EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5AA5BD98-D696-4069-AFE0-DEA58BC15A20}" type="presOf" srcId="{5542B310-4A47-4EC2-8AC2-82CA7364AA30}" destId="{68144B92-860E-4848-BBCC-54AADC405545}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D29C741D-74C3-42A6-81B8-EA1A6F71C4AF}" type="presOf" srcId="{A38F92EC-329E-4B13-878E-C3EC5722155C}" destId="{1D1A3CD3-61BB-429D-9833-9DC830D89DC0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F01C2F34-0F0E-4BB7-824D-6524CEB9B877}" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" srcOrd="1" destOrd="0" parTransId="{49EBEDF9-13CE-4533-B2AE-CF1B2481B628}" sibTransId="{022E31B1-CA08-4B77-8EEC-E9FFD408A775}"/>
-    <dgm:cxn modelId="{8E7B7363-8BFC-4092-8A3C-24D0C4DFD6B7}" type="presOf" srcId="{03BD8A55-5B8B-485A-95C5-74A087D970B9}" destId="{696010EE-9843-4E21-8D22-1D51C9090125}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{79D97DA8-6ECE-46DC-9528-A19E7D5579C8}" type="presOf" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{990F9B54-D087-4B3E-98C1-048FF33B40FB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2E43AF15-EC05-44E4-B611-D32FF5847289}" srcId="{43932AA0-816A-439B-A5A1-52DBE7882114}" destId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" srcOrd="2" destOrd="0" parTransId="{79AD2030-2CA6-4D65-BD82-248F70275F59}" sibTransId="{AEE0BBDA-9DE3-4581-A39C-D7B9436085C0}"/>
-    <dgm:cxn modelId="{41FA8339-06C7-4EDE-81A0-EAF77DB11726}" type="presOf" srcId="{FC2D3C72-F3A1-4C91-8D88-24CB88F3BB43}" destId="{653702B7-33CE-4DB9-9316-C41A1DB023B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B8B8D2C0-B1E3-46A8-BE83-92C9AD7C027E}" type="presOf" srcId="{AC8EAF72-9B33-4F9D-8DC9-2A7474A03EFA}" destId="{844542E4-5DBF-486C-A794-B38151764904}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{952356C7-8037-44D9-83E9-2DF81256D341}" type="presOf" srcId="{61EA42AB-C2A6-4310-B9AA-19D0569B7ADD}" destId="{7B98E3AA-C54D-46D7-A02A-6AA3B99BA60F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{306791B8-03D4-49A0-9312-43078170C1A5}" type="presOf" srcId="{6E447E43-CC2D-4EF3-9E3F-86E4AF5196FB}" destId="{7FC3CE6B-6928-4689-8833-DE24AE364E13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3EAAFAEE-104E-4417-AE32-1419F79666E3}" type="presOf" srcId="{0A81C53D-F264-4004-99B1-697490FC3EB2}" destId="{B52E93F3-7A4F-4B8E-9C15-C74D3BC67DF1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{75DAF1D9-C798-477F-B356-9788860BD847}" type="presOf" srcId="{B6D85304-4CF5-413B-B962-60DF3DA97DAB}" destId="{B9F4681F-4F15-49BD-A4E3-B8359F2D2C2B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A54FB9E9-69CF-4522-B994-D8A888376649}" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{01072C84-904C-4FDA-AA21-53A24672D3D3}" srcOrd="1" destOrd="0" parTransId="{1A24CFD9-2209-4FB3-82F2-86303441B72A}" sibTransId="{3892CAE9-63FA-4EF9-A7EB-355F2BE9AA17}"/>
-    <dgm:cxn modelId="{47A7A4EC-F311-46B3-AF9E-7EDB624DA53B}" type="presOf" srcId="{8E31C894-B092-440D-BAA2-1B92898CDFBE}" destId="{D61B5542-47D8-447E-A673-4E59CC213F1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F604CB53-64C3-4AEA-B9B4-A1CE17B82534}" type="presOf" srcId="{A9F544E2-775E-4368-B264-E5F8C59440B1}" destId="{938C103A-9036-4A49-BF38-5F76B23F6235}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C7572141-F510-4500-AFC3-3FF930B1C356}" type="presOf" srcId="{9AC547A2-6F37-4640-AD4A-2A8EC4136337}" destId="{CF2A8435-EF4C-4F72-BC92-8BC82CCF5DE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1B65CDD7-4E6B-43EF-B659-C3144E57E80B}" type="presOf" srcId="{F7F8CC26-A0E1-4605-9F22-C60CC546972A}" destId="{BA773CFB-0EFD-40A7-9232-FF4A34588AA4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A4990D9E-1D71-4917-89D0-DA58ADF00502}" type="presOf" srcId="{D738EB60-35F4-4543-96E7-213F972C615B}" destId="{F371728A-62E8-4726-AE1C-8F640D33178E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4334FCA1-DC4E-4D17-B5CF-0EA6184BAD5B}" srcId="{4E29CB6A-A1B5-4259-8E86-20C250A73340}" destId="{A38F92EC-329E-4B13-878E-C3EC5722155C}" srcOrd="0" destOrd="0" parTransId="{9AC547A2-6F37-4640-AD4A-2A8EC4136337}" sibTransId="{6B0B96FE-B84F-447F-AD18-855A911B7FBC}"/>
-    <dgm:cxn modelId="{3E57DF4E-47B3-4BDA-9085-8CB4E49FA1C0}" type="presOf" srcId="{04A474D2-0673-4EAD-BF97-59F7AE2B42B7}" destId="{F848ACC5-918C-402C-B8D5-DFBF13D4C856}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{148027CE-4793-4C3E-B9D9-525935219DB2}" type="presOf" srcId="{6339EE1A-9D8E-459E-8D8C-C8A1314B772C}" destId="{CB6E0CAE-8773-40C7-A7FC-53E0A1854258}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{45F2C179-7C02-4F53-BFD0-C8FC34D27977}" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{03BD8A55-5B8B-485A-95C5-74A087D970B9}" srcOrd="0" destOrd="0" parTransId="{020D83E0-1287-488E-A3E0-672D7AA47BB8}" sibTransId="{BC27DCFA-2AB1-40D4-9394-630A9F291672}"/>
-    <dgm:cxn modelId="{323353F4-C821-405D-8E4F-79C7ABB3B7CB}" type="presOf" srcId="{FF6DC62E-C465-4C17-8511-CC3D6344DDAB}" destId="{7420ECEE-7EC9-4E55-AB03-DCB7D4534804}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3AA69591-FDC5-4D73-A679-AEC8D341BA46}" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" srcOrd="2" destOrd="0" parTransId="{4D41940B-7E8D-4D6D-A0C5-D5D4BAD63D81}" sibTransId="{B8A57F6E-5DAA-4FAD-B76D-A5E3FD60C3AE}"/>
-    <dgm:cxn modelId="{C2567149-7078-4334-BD93-570E1E882B67}" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{913E2C48-5AEF-4B71-A35D-BE9821A095E1}" srcOrd="2" destOrd="0" parTransId="{E44142EE-4432-4B43-B07A-BA00FF1865FB}" sibTransId="{A30DAA5C-462C-446A-AC15-E1FBA9650470}"/>
-    <dgm:cxn modelId="{EA037C09-9574-424F-AF98-465F167EA1A9}" type="presOf" srcId="{82DFC2F5-7D44-44AD-8EE4-BCE630C399E0}" destId="{0B618128-57DC-414C-94AE-A9E759CCE0C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AFDFEB2B-36B4-47CD-BC59-167F8B5DEDA6}" type="presOf" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{C58E394D-C327-43B4-8658-28557153CD53}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C21C25C7-3CD0-4947-BDB5-B6516D6DCBE1}" type="presOf" srcId="{4AC33705-0CD3-4010-B374-24E02A9FDE30}" destId="{FEFD87B6-BA29-41F1-9344-D416BE5158B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FDD542FE-9FBC-4346-A525-0EC018E91E8F}" type="presOf" srcId="{21E82C0D-A6AF-4510-BDBE-6476610A64ED}" destId="{BED7C01D-3F10-45E1-AF0D-1133700974AB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D772498E-0364-47EF-9749-0FDFC0EC2A62}" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{F6744856-D00D-4A2A-8790-90BE82698F9D}" srcOrd="2" destOrd="0" parTransId="{A37A91FC-2BB7-4C62-A698-7E60FF60DA8F}" sibTransId="{F8ABDE00-FB07-4610-BF15-BE6354835CAD}"/>
-    <dgm:cxn modelId="{644660D4-C139-469F-9FDD-1B87487BE196}" type="presOf" srcId="{3A039B0F-F855-4F48-8297-232298A95547}" destId="{BAD4C95D-1DEF-4C89-A5D0-D5BF72FC3581}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{78B99BCC-B788-44F3-A2B4-DCE23E038E2D}" type="presOf" srcId="{512E93EE-F903-48C7-ACB3-43482E09ECC6}" destId="{AB57AC18-F729-4242-9EA9-654839E7F1DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6691D37D-2AC9-471C-9B3D-F268BE5F4F93}" type="presOf" srcId="{03BD8A55-5B8B-485A-95C5-74A087D970B9}" destId="{418A24F8-11AB-468C-A24A-33F5E3762FD2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B8D6945E-F9E8-470C-9AAF-B3D117507D94}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" srcOrd="3" destOrd="0" parTransId="{AC8EAF72-9B33-4F9D-8DC9-2A7474A03EFA}" sibTransId="{4374290B-11F6-4E0C-85BB-1BFD8B9C3801}"/>
-    <dgm:cxn modelId="{7A69ABA5-270B-46E4-B32A-EF4FCEAC3D55}" type="presOf" srcId="{F19FDF29-F3CD-4863-AE1C-A713C75B09BE}" destId="{3791DA27-7FAF-4737-9A38-244CBBECD1A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8C920A91-6E3A-4AA1-8104-C3DA7D2F8BC7}" srcId="{A8F36661-D828-4746-BDFB-C33B6E0C384F}" destId="{B6F2BC2A-59AE-495A-BA0A-C8AB0829A10C}" srcOrd="0" destOrd="0" parTransId="{17C96569-557C-4AB4-89F5-A6C24A9D6457}" sibTransId="{AFCF15FA-4656-4F55-BA8B-A21B6E5FC9EA}"/>
-    <dgm:cxn modelId="{0B7F8403-FCF2-450E-9BD0-2BA7B4D5C07A}" type="presOf" srcId="{FF6DC62E-C465-4C17-8511-CC3D6344DDAB}" destId="{6D590515-9C66-4E47-8977-1C838C9F5400}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7DF0B7A8-E5B7-460E-ACCD-265BC25B9149}" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{FF6DC62E-C465-4C17-8511-CC3D6344DDAB}" srcOrd="2" destOrd="0" parTransId="{AA01604F-CB42-43CB-935B-7B5CA9BE7447}" sibTransId="{EE55EBF8-E137-44B4-86EB-6DD43A0B735A}"/>
-    <dgm:cxn modelId="{818E7947-FD20-4322-915D-F834726C151C}" type="presOf" srcId="{49EBEDF9-13CE-4533-B2AE-CF1B2481B628}" destId="{4EDEFCF5-BA47-40D2-BED8-AE54D1C8B0B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{847B0C84-19FD-4F94-8856-1F8BA4A5A060}" type="presOf" srcId="{B42A01FB-4B17-4695-BFA0-917571F9FFCC}" destId="{4837BDBF-9A7A-4D6C-ACFA-933D2A97A7B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5C3701D3-DCE6-46BD-8C9C-04FD42AA70CA}" srcId="{0B812FA1-8EB2-44A3-91CE-8E82FFB5D516}" destId="{89CA372E-27D2-4FC9-A425-CCCEE8C984FC}" srcOrd="3" destOrd="0" parTransId="{97815DA4-979B-4B4B-82C7-F1131F189FB3}" sibTransId="{154E20B3-AAB9-4063-BB13-5FC5D88BFCDF}"/>
-    <dgm:cxn modelId="{41AF749E-BA2A-46A5-A7B1-831B1390755A}" type="presOf" srcId="{6C76580A-8D65-4EA6-BB13-362E23672695}" destId="{F847DC6C-1438-463C-8164-51F7DA39BB83}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6C0CC9EC-5118-4709-A350-8003ED963D62}" type="presOf" srcId="{FAEA96DB-5968-4182-98E0-89F5D2F7CDAB}" destId="{AED83BFD-9ECA-4CF8-BF5B-B2752AEEB3F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BB249E05-E344-46D0-A2DA-970E319AA399}" type="presOf" srcId="{929529B2-F05F-464C-BF29-6EB0688953A3}" destId="{7B46283E-4832-474D-99BE-65F042D907C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{20D0B02C-AC64-4AEB-99B4-6DC309FCA4C2}" type="presOf" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{6A4B777C-F52D-41E6-BFDB-472483B86B0D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{47A418FB-1724-4590-A528-23F39BD894C5}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" srcOrd="4" destOrd="0" parTransId="{B6D85304-4CF5-413B-B962-60DF3DA97DAB}" sibTransId="{B77FD464-11E8-44E0-9742-AC4C8DBE985E}"/>
-    <dgm:cxn modelId="{758FE339-AC36-41B5-8AE8-65509F51828E}" type="presOf" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{38EBCDAB-4CAB-4BC4-AEC2-0523FFEC2607}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3685E2B8-FF6E-40E6-AD8E-656BF04D28DD}" srcId="{E5398D70-67FE-43D1-BD18-92B73A8AD2A3}" destId="{4DF7693D-E165-48C6-A270-428494D1C75E}" srcOrd="0" destOrd="0" parTransId="{6C76580A-8D65-4EA6-BB13-362E23672695}" sibTransId="{8AA98F1C-9354-403C-8276-D3F2585C6A90}"/>
-    <dgm:cxn modelId="{2681824B-5F1D-412A-A7FB-4620AEEC7B90}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" srcOrd="1" destOrd="0" parTransId="{8E31C894-B092-440D-BAA2-1B92898CDFBE}" sibTransId="{8C696E4D-3AD2-42CD-AC41-2C16E012AF1C}"/>
-    <dgm:cxn modelId="{FF20EA7B-0BCF-43EC-B3AF-C737C4844A30}" type="presOf" srcId="{F6744856-D00D-4A2A-8790-90BE82698F9D}" destId="{B55DDFB6-431B-4D97-A845-DF411328A575}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A1810B0C-2B2D-44F3-BF45-8BA7C4401D8C}" type="presOf" srcId="{0A81C53D-F264-4004-99B1-697490FC3EB2}" destId="{BD42DA75-3A41-4B4E-9212-830A644A2112}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5D94D16F-483D-47B0-9C98-D08F0228A5AF}" srcId="{17070AC6-88DB-42EA-BC90-3C70879959F4}" destId="{12269FB0-6C97-43D6-AED6-F65016DE0C9A}" srcOrd="0" destOrd="0" parTransId="{5542B310-4A47-4EC2-8AC2-82CA7364AA30}" sibTransId="{BECF5B88-679B-49B7-AAF5-C8D3EE46B4A8}"/>
-    <dgm:cxn modelId="{D8DB5021-7173-4E29-9379-2943466BD2FC}" srcId="{A78C540E-C051-40EA-A87E-C1F0A298F4EC}" destId="{43932AA0-816A-439B-A5A1-52DBE7882114}" srcOrd="2" destOrd="0" parTransId="{B42A01FB-4B17-4695-BFA0-917571F9FFCC}" sibTransId="{740876E3-2594-4B54-90AB-02C66384BA72}"/>
-    <dgm:cxn modelId="{D85378C7-79F2-4AA7-B5E2-E436F8FA95F5}" type="presOf" srcId="{38283BE2-AE4D-463A-AF0D-BAF397A63EA2}" destId="{6D68116B-8C0C-4E52-ABA1-C98F26C8C598}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EE3905C5-0660-4D26-AAA0-8A8C736089C7}" type="presOf" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{79A9B0BA-3E0C-4F14-B952-82F8EB4DE105}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FE61B045-0E0D-4319-BC54-30BCFF1F38CC}" type="presOf" srcId="{12269FB0-6C97-43D6-AED6-F65016DE0C9A}" destId="{2ECD3799-45F5-45A6-A797-032898DF0932}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{60AF4282-4FF1-40E3-970A-255C1D6C029E}" type="presOf" srcId="{CB8099E2-1173-44F2-A114-C0EDC66E6006}" destId="{3626950A-EDA9-441D-87A2-5BADBE9027B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8CB5487E-7563-4369-9946-C5153930CBF8}" type="presOf" srcId="{4F7F9F40-7CCD-4677-9F64-D354315DC9C5}" destId="{E4879F4A-FBDA-4C14-8F0D-8A42C32055B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{819E0959-F0A2-4FB1-B896-8931D72B5B35}" type="presOf" srcId="{4DF7693D-E165-48C6-A270-428494D1C75E}" destId="{15654971-5115-4B5D-90AA-926C9E624443}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{117B7429-4F8E-4B2E-B71E-837C598AA72B}" srcId="{64911DC9-9EAF-4C1D-B337-A65C0BAD6254}" destId="{BCD87DDD-F763-4370-A26B-2532B2531EF1}" srcOrd="1" destOrd="0" parTransId="{FE9053F8-50AC-42EF-98D6-31D682990E80}" sibTransId="{778A2F10-6CA8-4A20-AACE-535E6D0A2F53}"/>
-    <dgm:cxn modelId="{CB8AFB0F-73FB-4F70-9A6A-26E1882251D6}" type="presOf" srcId="{6989C0BA-3AC4-4DC7-A6CE-B8B54A2EE2CB}" destId="{C46C3A53-5460-413F-8FA4-EB3DFBE10FC0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{937756F9-8C18-4F58-81BC-E7C7CDA79438}" type="presOf" srcId="{79AD2030-2CA6-4D65-BD82-248F70275F59}" destId="{AD322671-7309-4CDF-8461-673D64EAA1E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{430BDDD7-76FC-4B5A-95A0-19D4750C04A0}" type="presOf" srcId="{A38F92EC-329E-4B13-878E-C3EC5722155C}" destId="{8724E3AA-1927-42D7-80FD-29FCD4A2B812}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0A57E27B-9528-4444-A5F4-9B873C64EE3E}" type="presOf" srcId="{328A9518-235E-488C-AB65-179AF64835E0}" destId="{F65BD52F-2EFC-4924-BCED-8A28E2D8ADB7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{365712D4-4195-4B69-9373-2AF73C6BCE7A}" type="presOf" srcId="{929529B2-F05F-464C-BF29-6EB0688953A3}" destId="{31C2BC30-14B6-4B77-811E-F0CAF2E264B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D3AF58BE-CF4D-47A6-8D13-3BE9C220BC9B}" type="presParOf" srcId="{AB57AC18-F729-4242-9EA9-654839E7F1DA}" destId="{46F8F1C5-8413-4FC8-934F-3DF6ABDED689}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{30EA5915-5424-4218-AFCF-D7E731CC5A69}" type="presParOf" srcId="{46F8F1C5-8413-4FC8-934F-3DF6ABDED689}" destId="{BFC592A3-7102-4B2D-B19F-99E0ED2C5608}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F562BC04-88CF-46F8-9FFF-A53163C3D6D2}" type="presParOf" srcId="{BFC592A3-7102-4B2D-B19F-99E0ED2C5608}" destId="{C58E394D-C327-43B4-8658-28557153CD53}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -5846,7 +5901,4429 @@
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
 </dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{CA12B16E-B747-4F4C-A7BA-6144FF7A6FA2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7115454" y="1482801"/>
+          <a:ext cx="106393" cy="1333463"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1333463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="1333463"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{AED83BFD-9ECA-4CF8-BF5B-B2752AEEB3F5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7115454" y="1482801"/>
+          <a:ext cx="106393" cy="829868"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="829868"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="829868"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{2ADFDF86-C8E9-44DA-9A05-637FC366CCB9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7115454" y="1482801"/>
+          <a:ext cx="106393" cy="326273"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="326273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="326273"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B9F4681F-4F15-49BD-A4E3-B8359F2D2C2B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3877548" y="979206"/>
+          <a:ext cx="3521621" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3521621" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3521621" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{FEFD87B6-BA29-41F1-9344-D416BE5158B8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6257214" y="1482801"/>
+          <a:ext cx="106393" cy="829868"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="829868"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="829868"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{68144B92-860E-4848-BBCC-54AADC405545}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6257214" y="1482801"/>
+          <a:ext cx="106393" cy="326273"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="326273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="326273"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{844542E4-5DBF-486C-A794-B38151764904}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3877548" y="979206"/>
+          <a:ext cx="2663381" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2663381" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2663381" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F9CB9890-9253-47C3-9671-1F1EE12633D0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5398974" y="1986396"/>
+          <a:ext cx="106393" cy="1333463"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1333463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="1333463"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{25AB6DB2-8699-4B99-AC48-45A714B12F29}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5398974" y="1986396"/>
+          <a:ext cx="106393" cy="829868"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="829868"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="829868"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{125E2351-2980-4373-9351-390A213AD225}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5398974" y="1986396"/>
+          <a:ext cx="106393" cy="326273"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="326273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="326273"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{AD322671-7309-4CDF-8461-673D64EAA1E5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4824450" y="1482801"/>
+          <a:ext cx="858240" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="858240" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="858240" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F848ACC5-918C-402C-B8D5-DFBF13D4C856}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4540734" y="1986396"/>
+          <a:ext cx="106393" cy="1837059"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1837059"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="1837059"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{EF57B2C7-9C7C-4EB6-A2C3-F3C8DDC81CBE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4540734" y="1986396"/>
+          <a:ext cx="106393" cy="1333463"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1333463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="1333463"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3626950A-EDA9-441D-87A2-5BADBE9027B2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4540734" y="1986396"/>
+          <a:ext cx="106393" cy="829868"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="829868"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="829868"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D2A58E3F-D90C-4A8C-9B35-4D6085E91012}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4540734" y="1986396"/>
+          <a:ext cx="106393" cy="326273"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="326273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="326273"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4EDEFCF5-BA47-40D2-BED8-AE54D1C8B0B5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4778730" y="1482801"/>
+          <a:ext cx="91440" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{57196472-5CC1-4CFD-B086-E9456CA0CD2F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3682494" y="1986396"/>
+          <a:ext cx="106393" cy="1837059"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1837059"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="1837059"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{6B143504-2B91-4EA4-B422-7708CAB0C6DA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3682494" y="1986396"/>
+          <a:ext cx="106393" cy="1333463"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1333463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="1333463"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{67C105B5-A18A-4173-A30B-2E2CEBC6AFEE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3682494" y="1986396"/>
+          <a:ext cx="106393" cy="829868"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="829868"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="829868"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{CB6E0CAE-8773-40C7-A7FC-53E0A1854258}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3682494" y="1986396"/>
+          <a:ext cx="106393" cy="326273"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="326273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="326273"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{006B245B-FA11-468F-8A40-81AAE7A69365}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3966209" y="1482801"/>
+          <a:ext cx="858240" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="858240" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="858240" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4837BDBF-9A7A-4D6C-ACFA-933D2A97A7B5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3877548" y="979206"/>
+          <a:ext cx="946901" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="946901" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="946901" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{938C103A-9036-4A49-BF38-5F76B23F6235}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2824254" y="1986396"/>
+          <a:ext cx="106393" cy="1837059"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1837059"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="1837059"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F3ED313C-A101-477D-BBAB-4D3C90FE9BB5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2824254" y="1986396"/>
+          <a:ext cx="106393" cy="1333463"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1333463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="1333463"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B165BD26-9C1A-4AD0-A4EA-17719DDD0762}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2824254" y="1986396"/>
+          <a:ext cx="106393" cy="829868"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="829868"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="829868"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F847DC6C-1438-463C-8164-51F7DA39BB83}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2824254" y="1986396"/>
+          <a:ext cx="106393" cy="326273"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="326273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="326273"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0B27ADA4-4FC6-45CB-8EEC-2D5CCB3BECFF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2249729" y="1482801"/>
+          <a:ext cx="858240" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="858240" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="858240" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D8F646F0-48F6-468E-BEF7-B832F3A12986}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2204009" y="1482801"/>
+          <a:ext cx="91440" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0B618128-57DC-414C-94AE-A9E759CCE0C5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1391489" y="1482801"/>
+          <a:ext cx="858240" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="858240" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="858240" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D61B5542-47D8-447E-A673-4E59CC213F1B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2249729" y="979206"/>
+          <a:ext cx="1627818" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1627818" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1627818" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{CF2A8435-EF4C-4F72-BC92-8BC82CCF5DE1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="72211" y="1482801"/>
+          <a:ext cx="106393" cy="326273"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="326273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106393" y="326273"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BED7C01D-3F10-45E1-AF0D-1133700974AB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="355927" y="979206"/>
+          <a:ext cx="3521621" cy="148950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="3521621" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3521621" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="74475"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="148950"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C58E394D-C327-43B4-8658-28557153CD53}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3522904" y="624561"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Fase </a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3522904" y="624561"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{37FC0819-F781-44ED-BEDA-09083A47ED25}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1283" y="1128156"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Inicio</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1283" y="1128156"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1D1A3CD3-61BB-429D-9833-9DC830D89DC0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="178605" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Launch and Strategy</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="178605" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E4879F4A-FBDA-4C14-8F0D-8A42C32055B2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1895085" y="1128156"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Planeación</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1895085" y="1128156"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BD42DA75-3A41-4B4E-9212-830A644A2112}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1036845" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Planning</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1036845" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5C9934EC-F4C9-4527-89CD-DBB332D34F31}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1895085" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>System Test Plan</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1895085" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6A4B777C-F52D-41E6-BFDB-472483B86B0D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2753325" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Requerimientos</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2753325" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E58426A5-D035-4475-9984-6339D6978653}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2930647" y="2135347"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>REQ Inspection</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2930647" y="2135347"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2CE8079E-3CB0-4BE9-82D2-B658B5D669B2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2930647" y="2638943"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>High-Level Design</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2930647" y="2638943"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6D590515-9C66-4E47-8977-1C838C9F5400}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2930647" y="3142538"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Integration Test Plan</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2930647" y="3142538"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BAD4C95D-1DEF-4C89-A5D0-D5BF72FC3581}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2930647" y="3646133"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>HLD Inspection</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2930647" y="3646133"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CF3E9E42-D047-4E3A-8D3D-B2144D200126}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4469805" y="1128156"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Ejecución</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4469805" y="1128156"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{506FE6C4-031D-4DD5-AF71-20A1976D3F49}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3611565" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Diseño</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3611565" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E2C4D3E0-A836-40F4-BB48-3DD42D0FB62E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3788887" y="2135347"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Detailed Design</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3788887" y="2135347"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{242F5DA7-AD8A-4397-B4A6-0E19B7DBE9EC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3788887" y="2638943"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>DLD Review</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3788887" y="2638943"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{51FCBE20-6338-4E56-A5D7-E48DD7600E1A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3788887" y="3142538"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Test Development</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3788887" y="3142538"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{56319D7B-7B89-4368-9034-3CF8691D7ECE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3788887" y="3646133"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>DLD Inspection</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3788887" y="3646133"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1F74A08B-B5A7-4163-9E97-D976F5740478}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4469805" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Codificación</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4469805" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{888AEA48-AA0F-42DA-B441-31BAF32BD9B6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4647127" y="2135347"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Code</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4647127" y="2135347"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{653702B7-33CE-4DB9-9316-C41A1DB023B5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4647127" y="2638943"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Code Review</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4647127" y="2638943"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{53D893D3-2895-41A9-A198-57DDBE3E72FC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4647127" y="3142538"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Compile</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4647127" y="3142538"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C182DF9C-C386-42E0-B4D6-05C35F79C59D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4647127" y="3646133"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Code Inspection</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4647127" y="3646133"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{79A9B0BA-3E0C-4F14-B952-82F8EB4DE105}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5328045" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Pruebas</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5328045" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{418A24F8-11AB-468C-A24A-33F5E3762FD2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5505367" y="2135347"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Unit Test</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5505367" y="2135347"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{94B223F4-C54C-4CBD-8305-57EAF19593B6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5505367" y="2638943"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Build and Integration Test</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5505367" y="2638943"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B55DDFB6-431B-4D97-A845-DF411328A575}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5505367" y="3142538"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>System Test</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5505367" y="3142538"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B4DF1B49-E539-4BF1-99B6-B26761F7CF57}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6186285" y="1128156"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Cierre</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6186285" y="1128156"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E27D9D5B-6F6F-4088-9201-B8ACAD65D96B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6363607" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Documentation</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6363607" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7B46283E-4832-474D-99BE-65F042D907C3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6363607" y="2135347"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" b="0" i="0" u="none" kern="1200"/>
+            <a:t>Postmortem</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6363607" y="2135347"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C46C3A53-5460-413F-8FA4-EB3DFBE10FC0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7044525" y="1128156"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Control</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7044525" y="1128156"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7B98E3AA-C54D-46D7-A02A-6AA3B99BA60F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7221847" y="1631752"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Weekly meeting</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7221847" y="1631752"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F65BD52F-2EFC-4924-BCED-8A28E2D8ADB7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7221847" y="2135347"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Risk Monitoring</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7221847" y="2135347"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6D68116B-8C0C-4E52-ABA1-C98F26C8C598}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7221847" y="2638943"/>
+          <a:ext cx="709289" cy="354644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="800" kern="1200"/>
+            <a:t>Quality Tracking</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7221847" y="2638943"/>
+        <a:ext cx="709289" cy="354644"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8033,16 +12510,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8100,7 +12577,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8174,6 +12651,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8208,6 +12686,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8383,179 +12862,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" ht="362.25" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="C1" s="30" t="s">
+        <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+      <c r="D1" s="30" t="s">
+        <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="30" t="s">
+        <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+      <c r="F1" s="30" t="s">
+        <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
+      <c r="G1" s="30" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:H5" si="0">C9/$H9*100</f>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E2" s="4">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="E2" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
       <c r="G2" s="4">
-        <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:H5" si="0">H9/$H9*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <f>SUM(C2:C5)</f>
-        <v>206.66666666666666</v>
+        <v>300</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ref="D6:G6" si="1">SUM(D2:D5)</f>
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>366.66666666666663</v>
+        <v>367</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>208.33333333333331</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -8575,7 +13034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8598,7 +13057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -8621,7 +13080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -8644,7 +13103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8667,7 +13126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <f>SUM(C9:C12)</f>
         <v>58</v>
@@ -8691,19 +13150,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8711,33 +13171,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="3" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="7">
         <v>41484</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -8751,7 +13211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -8765,7 +13225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -8779,7 +13239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -8793,7 +13253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -8802,25 +13262,25 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
@@ -8830,9 +13290,9 @@
       <c r="E10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -8853,7 +13313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -8874,7 +13334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -8882,7 +13342,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -8890,7 +13350,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -8898,7 +13358,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -8906,7 +13366,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -8914,7 +13374,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -8922,7 +13382,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -8930,7 +13390,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -8938,7 +13398,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -8946,7 +13406,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -8954,27 +13414,27 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="22">
         <f>SUM(B11:B22)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="22">
         <f t="shared" ref="C23:F23" si="1">SUM(C11:C22)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="22">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
